--- a/3sem/Econom/1/пенсии.xlsx
+++ b/3sem/Econom/1/пенсии.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seron\Desktop\study\3sem\Econom\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3809AFD7-2BFE-498A-BD2D-E9ACE279829E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F29992-889C-475E-94E8-DCF5AD4000EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -744,10 +742,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,6 +755,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,9 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2064,15 +2062,15 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="18"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2107,22 +2105,22 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="J4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="J4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="19">
         <v>2013</v>
       </c>
@@ -2159,11 +2157,11 @@
       <c r="M5" s="19">
         <v>2016</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="17">
         <v>2017</v>
       </c>
       <c r="O5" s="18"/>
-      <c r="P5" s="16">
+      <c r="P5" s="17">
         <v>2018</v>
       </c>
       <c r="Q5" s="18"/>
@@ -2175,7 +2173,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -7913,26 +7911,26 @@
       <c r="S105" s="1"/>
     </row>
     <row r="106" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="25"/>
-      <c r="L106" s="25"/>
-      <c r="M106" s="25"/>
-      <c r="N106" s="25"/>
-      <c r="O106" s="25"/>
-      <c r="P106" s="25"/>
-      <c r="Q106" s="25"/>
-      <c r="R106" s="25"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="16"/>
       <c r="S106" s="1"/>
     </row>
     <row r="107" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -8029,6 +8027,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="J4:S4"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="A106:R106"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:R6"/>
@@ -8044,37 +8047,8 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="J4:S4"/>
-    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>